--- a/temp/performance.xlsx
+++ b/temp/performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boweigao/Projects/Preprocess/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E01FEF-45E7-F54B-93C7-366859318B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFBF587-E09B-5644-84F1-E4840349BB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{0B55AC14-72A7-034A-9E86-D66614113898}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{0B55AC14-72A7-034A-9E86-D66614113898}"/>
   </bookViews>
   <sheets>
     <sheet name="olist_orders_dataset" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>transformed</t>
   </si>
@@ -164,10 +164,6 @@
     <t>KMeans</t>
   </si>
   <si>
-    <t>[[1038 1482]
- [2209 2021]]</t>
-  </si>
-  <si>
     <t>hierarchical clustering</t>
   </si>
   <si>
@@ -192,18 +188,6 @@
     <t>BIRCH</t>
   </si>
   <si>
-    <t>[[ 401 2119]
- [2358 1872]]</t>
-  </si>
-  <si>
-    <t>[[ 948 1572]
- [2868 1362]]</t>
-  </si>
-  <si>
-    <t>[[1133 1387]
- [3608  622]]</t>
-  </si>
-  <si>
     <t>[[ 404 2116]
  [ 553 3677]]</t>
   </si>
@@ -291,161 +275,25 @@
  [ 1982  3522]]</t>
   </si>
   <si>
-    <t>0.5021676640516328</t>
-  </si>
-  <si>
     <t>KMeans balanced</t>
   </si>
   <si>
-    <t>[[2510 2994]
- [1982 3522]]</t>
-  </si>
-  <si>
-    <t>0.5045562971555099</t>
-  </si>
-  <si>
     <t>hierarchical clustering balanced</t>
   </si>
   <si>
-    <t>[[2235 3269]
- [1809 3695]]</t>
-  </si>
-  <si>
-    <t>0.5029500914851226</t>
-  </si>
-  <si>
-    <t>[[60982 35794]
- [ 3821  1683]]</t>
-  </si>
-  <si>
     <t>HDBSCAN balanced</t>
   </si>
   <si>
-    <t>[[3833 1671]
- [4323 1181]]</t>
-  </si>
-  <si>
-    <t>0.5039177632204453</t>
-  </si>
-  <si>
-    <t>[[54679 42097]
- [ 3024  2480]]</t>
-  </si>
-  <si>
-    <t>0.5069214144645485</t>
-  </si>
-  <si>
-    <t>4.51883288328487e-05</t>
-  </si>
-  <si>
-    <t>3.664658393029238e-05</t>
-  </si>
-  <si>
-    <t>5.6119285585458625e-05</t>
-  </si>
-  <si>
     <t>OPTICS balanced</t>
   </si>
   <si>
-    <t>[[2526 2978]
- [2944 2560]]</t>
-  </si>
-  <si>
-    <t>0.5028386402099299</t>
-  </si>
-  <si>
-    <t>[[39817 56959]
- [ 1844  3660]]</t>
-  </si>
-  <si>
-    <t>0.5112217684125437</t>
-  </si>
-  <si>
     <t>BIRCH balanced</t>
-  </si>
-  <si>
-    <t>[[44206 52570]
- [ 1980  3524]]</t>
-  </si>
-  <si>
-    <t>0.5022182245276989</t>
-  </si>
-  <si>
-    <t>[[3029 2475]
- [3524 1980]]</t>
-  </si>
-  <si>
-    <t>0.5039990572859554</t>
-  </si>
-  <si>
-    <t>[[2460 3044]
- [1973 3531]]</t>
-  </si>
-  <si>
-    <t>0.5038693829349611</t>
-  </si>
-  <si>
-    <t>[[55214 41562]
- [ 3573  1931]]</t>
-  </si>
-  <si>
-    <t>0.5068892312214028</t>
-  </si>
-  <si>
-    <t>[[2529 2975]
- [3100 2404]]</t>
-  </si>
-  <si>
-    <t>0.5053363405369944</t>
-  </si>
-  <si>
-    <t>[[63814 32962]
- [ 3581  1923]]</t>
-  </si>
-  <si>
-    <t>0.5407312649757012</t>
-  </si>
-  <si>
-    <t>8.960952246917124e-06</t>
-  </si>
-  <si>
-    <t>4.1525272534321967e-05</t>
-  </si>
-  <si>
-    <t>1.3562100181870932e-05</t>
-  </si>
-  <si>
-    <t>2.0446424595029726e-05</t>
-  </si>
-  <si>
-    <t>[[3374 2130]
- [3634 1870]]</t>
-  </si>
-  <si>
-    <t>0.5010704076264365</t>
-  </si>
-  <si>
-    <t>[[44315 52461]
- [ 1983  3521]]</t>
-  </si>
-  <si>
-    <t>0.5020821615393015</t>
-  </si>
-  <si>
-    <t>[[2481 3023]
- [1983 3521]]</t>
-  </si>
-  <si>
-    <t>0.5040482298790833</t>
   </si>
   <si>
     <t>[[2923 2581]
  [3522 1982]]</t>
   </si>
   <si>
-    <t>0.5058770905037175</t>
-  </si>
-  <si>
     <t>[[2463 3041]
  [1910 3594]]</t>
   </si>
@@ -458,43 +306,60 @@
  [4131 1373]]</t>
   </si>
   <si>
-    <t>0.5076096032176142</t>
-  </si>
-  <si>
-    <t>0.013592272936267148</t>
-  </si>
-  <si>
-    <t>0.014464473413412313</t>
-  </si>
-  <si>
-    <t>0.013660515709636155</t>
-  </si>
-  <si>
     <t>[[59131 37645]
  [ 3280  2224]]</t>
   </si>
   <si>
-    <t>4.406440732804253e-05</t>
-  </si>
-  <si>
-    <t>3.62495994790343e-05</t>
-  </si>
-  <si>
-    <t>5.519742523951245e-05</t>
-  </si>
-  <si>
     <t>[[2950 2554]
  [3357 2147]]</t>
   </si>
   <si>
-    <t>0.5026888445460711</t>
-  </si>
-  <si>
     <t>[[42166 54610]
  [ 1903  3601]]</t>
   </si>
   <si>
-    <t>0.5055144429740696</t>
+    <t>[[44205 52571]
+ [ 1980  3524]]</t>
+  </si>
+  <si>
+    <t>[[2489 3015]
+ [1980 3524]]</t>
+  </si>
+  <si>
+    <t>[[2495 3009]
+ [1983 3521]]</t>
+  </si>
+  <si>
+    <t>[[55654 41122]
+ [ 3603  1901]]</t>
+  </si>
+  <si>
+    <t>[[2775 2729]
+ [3265 2239]]</t>
+  </si>
+  <si>
+    <t>[[63715 33061]
+ [ 3571  1933]]</t>
+  </si>
+  <si>
+    <t>[[3288 2216]
+ [3592 1912]]</t>
+  </si>
+  <si>
+    <t>[[43910 52866]
+ [ 1987  3517]]</t>
+  </si>
+  <si>
+    <t>[[1648 3856]
+ [1526 3978]]</t>
+  </si>
+  <si>
+    <t>[[1572  948]
+ [1362 2868]]</t>
+  </si>
+  <si>
+    <t>[[1387 1133]
+ [ 622 3608]]</t>
   </si>
 </sst>
 </file>
@@ -542,14 +407,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,8 +732,8 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O40" sqref="O40"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,9 +741,9 @@
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -894,13 +759,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -920,917 +785,690 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="7">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.77053187328900996</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.15798107255520499</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.77283950617283903</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="7">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.59858558206231205</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>7.5616916607156998E-2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.58827160493827102</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="7">
+        <v>53</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.78982531612566798</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.167744598871611</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0.75246913580246899</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="7">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.76202581149784898</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.150553505535055</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.75555555555555498</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="7">
+        <v>55</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.681755964020336</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.111736104490418</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.72345679012345598</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="7">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.63560813453265497</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>8.6354590291598102E-2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.61604938271604903</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="7">
+        <v>57</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.52379090079520196</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>7.1051241415742206E-2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.66419753086419697</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="7">
+        <v>58</v>
+      </c>
+      <c r="E9" s="6">
         <v>0.63472819710598305</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>9.0379008746355599E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.63724304715840296</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="7">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.54790770434102398</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>7.0816355205845102E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.60943168077388099</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="6">
+        <v>60</v>
+      </c>
+      <c r="E11" s="5">
         <v>0.63665102333463697</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>9.2174211837471001E-2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.64873035066505402</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="7">
+        <v>61</v>
+      </c>
+      <c r="E12" s="6">
         <v>0.576196063094772</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>8.0313563082384201E-2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.65659008464328905</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="7">
+        <v>62</v>
+      </c>
+      <c r="E13" s="6">
         <v>0.56866770955546797</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>7.4071349760941499E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.60882708585247802</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="7">
+        <v>63</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.53669664971972297</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>6.5509131156613096E-2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.57255139056831905</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="7">
+        <v>64</v>
+      </c>
+      <c r="E15" s="6">
         <v>0.47422109242602001</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>6.296408089345E-2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.63059250302297398</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.46704145482987802</v>
-      </c>
-      <c r="F16" s="6">
-        <v>6.2835631835292796E-2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.63989825581395299</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16">
-        <v>2.1844283763891798E-3</v>
-      </c>
-      <c r="J16">
-        <v>4.7034957230950797E-3</v>
-      </c>
-      <c r="K16">
-        <v>1.43177693353971E-3</v>
-      </c>
-      <c r="L16">
-        <v>2.1952917368872199E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.54796511627906896</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.54051565377532196</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.63989825581395299</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17">
-        <v>6.9026036353544403E-3</v>
-      </c>
-      <c r="J17">
-        <v>6.8830442027618399E-3</v>
-      </c>
-      <c r="K17">
-        <v>7.05610039022326E-3</v>
-      </c>
-      <c r="L17">
-        <v>6.9684980396104703E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.53869912790697605</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.53058587018954595</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.67132994186046502</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18">
-        <v>4.71058548872701E-3</v>
-      </c>
-      <c r="J18">
-        <v>4.6548261126225302E-3</v>
-      </c>
-      <c r="K18">
-        <v>4.9068898829339302E-3</v>
-      </c>
-      <c r="L18">
-        <v>4.77753557404523E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.61268087602659305</v>
-      </c>
-      <c r="F19" s="6">
-        <v>4.4907543293219797E-2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.30577761627906902</v>
-      </c>
-      <c r="H19">
-        <v>0.52538931933645205</v>
-      </c>
-      <c r="I19">
-        <v>1.0546520006790899E-3</v>
-      </c>
-      <c r="J19">
-        <v>2.20365930606034E-3</v>
-      </c>
-      <c r="K19">
-        <v>7.0297921000228396E-4</v>
-      </c>
-      <c r="L19">
-        <v>1.06592317519204E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.45548691860465101</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.41409537166900401</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.21457122093023201</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20">
-        <v>8.11827672669343E-3</v>
-      </c>
-      <c r="J20">
-        <v>7.4744044269924401E-3</v>
-      </c>
-      <c r="K20">
-        <v>9.0559168271612499E-3</v>
-      </c>
-      <c r="L20">
-        <v>8.1895062754937208E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.55884825967931095</v>
-      </c>
-      <c r="F21" s="6">
-        <v>5.5634071382102801E-2</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.45058139534883701</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21">
-        <v>1.19750448755213E-4</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.46202761627906902</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.46226074395088401</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.46511627906976699</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22">
-        <v>4.0994045317978099E-3</v>
-      </c>
-      <c r="J22">
-        <v>4.16461776373019E-3</v>
-      </c>
-      <c r="K22">
-        <v>4.1647324035225903E-3</v>
-      </c>
-      <c r="L22">
-        <v>4.16467508283747E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.425078216660148</v>
-      </c>
-      <c r="F23" s="6">
-        <v>6.0377109487124499E-2</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.66497093023255804</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23">
-        <v>1.40962047858333E-3</v>
-      </c>
-      <c r="J23">
-        <v>3.0008869964258502E-3</v>
-      </c>
-      <c r="K23">
-        <v>9.3060158629222102E-4</v>
-      </c>
-      <c r="L23">
-        <v>1.4206477472341399E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.53869912790697605</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.53058587018954595</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.67132994186046502</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24">
-        <v>4.71058548872701E-3</v>
-      </c>
-      <c r="J24">
-        <v>4.6548261126225302E-3</v>
-      </c>
-      <c r="K24">
-        <v>4.9068898829339302E-3</v>
-      </c>
-      <c r="L24">
-        <v>4.77753557404523E-3</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.466660148611654</v>
-      </c>
-      <c r="F25" s="6">
-        <v>6.2823118337077002E-2</v>
-      </c>
-      <c r="G25" s="7">
+        <v>78</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.46665037152913502</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6.2821998395578907E-2</v>
+      </c>
+      <c r="G25" s="6">
         <v>0.64026162790697605</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>93</v>
+      <c r="H25" s="9">
+        <v>0.50221952859754404</v>
       </c>
       <c r="I25">
-        <v>2.1824589514325898E-3</v>
+        <v>2.18200486843759E-3</v>
       </c>
       <c r="J25">
-        <v>4.69885265117848E-3</v>
+        <v>4.6978699677155599E-3</v>
       </c>
       <c r="K25">
-        <v>1.4305325714483699E-3</v>
+        <v>1.4302373484183801E-3</v>
       </c>
       <c r="L25">
-        <v>2.19332331769044E-3</v>
+        <v>2.1928692626351498E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.45503270348837199</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.35973837209302301</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.546239098837209</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.53892032420859404</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.64026162790697605</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.50423107137424095</v>
       </c>
       <c r="I26">
-        <v>6.0791241732515502E-3</v>
+        <v>6.4234428442298402E-3</v>
       </c>
       <c r="J26">
-        <v>6.0641318367426304E-3</v>
+        <v>6.4061477646135002E-3</v>
       </c>
       <c r="K26">
-        <v>6.2283307806791201E-3</v>
+        <v>6.5748588064166698E-3</v>
       </c>
       <c r="L26">
-        <v>6.1451346491549702E-3</v>
+        <v>6.4894069369588097E-3</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0.544240552325581</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.53703422053231897</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.64153343023255804</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.54651162790697605</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.53920367534456304</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.63971656976744096</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.50428163050574504</v>
       </c>
       <c r="I27">
-        <v>5.8947227786063103E-3</v>
+        <v>6.4946327153523496E-3</v>
       </c>
       <c r="J27">
-        <v>5.8788586044384297E-3</v>
+        <v>6.4778709925270199E-3</v>
       </c>
       <c r="K27">
-        <v>6.0450233035740696E-3</v>
+        <v>6.6454225104001802E-3</v>
       </c>
       <c r="L27">
-        <v>5.9607831638062202E-3</v>
+        <v>6.5605771453035597E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.558711380524051</v>
+        <v>81</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.56271998435666704</v>
       </c>
       <c r="F28" s="6">
-        <v>4.4397949095256697E-2</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0.35083575581395299</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>99</v>
+        <v>4.4185668130999597E-2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.345385174418604</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.50786278120920203</v>
       </c>
       <c r="I28">
-        <v>1.4604704880548699E-3</v>
+        <v>1.5031655794270099E-3</v>
       </c>
       <c r="J28">
-        <v>3.1293977011360198E-3</v>
+        <v>3.2150797164928698E-3</v>
       </c>
       <c r="K28">
-        <v>9.6183551203093596E-4</v>
+        <v>9.9024375544668202E-4</v>
       </c>
       <c r="L28">
-        <v>1.47142227460098E-3</v>
+        <v>1.5141344696853801E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.44812863372092998</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.44692321992935402</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0.43677325581395299</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.45548691860465101</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.45068438003220601</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.40679505813953398</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.50391776322044501</v>
       </c>
       <c r="I29">
-        <v>7.7179816030041402E-3</v>
+        <v>5.73439441400647E-3</v>
       </c>
       <c r="J29">
-        <v>7.7815782237375302E-3</v>
+        <v>5.7799115131115701E-3</v>
       </c>
       <c r="K29">
-        <v>7.7844747293301098E-3</v>
+        <v>5.8197876360314002E-3</v>
       </c>
       <c r="L29">
-        <v>7.7830262070453099E-3</v>
+        <v>5.7997810337775098E-3</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.64271607352366</v>
+        <v>83</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.64184591317950701</v>
       </c>
       <c r="F30" s="6">
-        <v>5.5123978787444398E-2</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0.34938226744186002</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>107</v>
+        <v>5.5238040806995403E-2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.35119912790697599</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.540236031021192</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1.27710809417562E-5</v>
+      </c>
+      <c r="J30" s="7">
+        <v>4.9284590181021097E-5</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1.6078763625895801E-5</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2.4247081270053401E-5</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.47238372093023201</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.46317829457364301</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.34738372093023201</v>
+      </c>
+      <c r="H31">
+        <v>0.50148003067815194</v>
+      </c>
+      <c r="I31">
+        <v>2.3367404688516302E-3</v>
+      </c>
+      <c r="J31">
+        <v>2.3488884808403401E-3</v>
+      </c>
+      <c r="K31">
+        <v>2.4610276599973499E-3</v>
+      </c>
+      <c r="L31">
+        <v>2.4036508547487798E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.463697692608525</v>
+      </c>
+      <c r="F32" s="5">
+        <v>6.2376957593600901E-2</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.63898982558139505</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.50263085222468995</v>
+      </c>
+      <c r="I32">
+        <v>1.9939308937430302E-3</v>
+      </c>
+      <c r="J32">
+        <v>4.2922762724456496E-3</v>
+      </c>
+      <c r="K32">
+        <v>1.30782711058586E-3</v>
+      </c>
+      <c r="L32">
+        <v>2.00480415852253E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0.47638081395348802</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0.46750000000000003</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0.33975290697674398</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31">
-        <v>1.72202173206405E-3</v>
-      </c>
-      <c r="J31">
-        <v>1.74047719258973E-3</v>
-      </c>
-      <c r="K31">
-        <v>1.8409045623111399E-3</v>
-      </c>
-      <c r="L31">
-        <v>1.7892828096599299E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.467696519358623</v>
-      </c>
-      <c r="F32" s="6">
-        <v>6.2895216319531197E-2</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0.63971656976744096</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32">
-        <v>2.2070519652820399E-3</v>
-      </c>
-      <c r="J32">
-        <v>4.7526465497209E-3</v>
-      </c>
-      <c r="K32">
-        <v>1.4464676793282301E-3</v>
-      </c>
-      <c r="L32">
-        <v>2.2179135184274799E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.54523982558139505</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0.53805012224938797</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0.63971656976744096</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>113</v>
+      <c r="E33" s="6">
+        <v>0.511082848837209</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.50778657135562899</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.72274709302325502</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.50020025575690696</v>
       </c>
       <c r="I33">
-        <v>6.1485183621184701E-3</v>
+        <v>3.925470829329E-4</v>
       </c>
       <c r="J33">
-        <v>6.1339999176302402E-3</v>
+        <v>4.3187187243577397E-4</v>
       </c>
       <c r="K33">
-        <v>6.2971597029840704E-3</v>
+        <v>4.9837404955468305E-4</v>
       </c>
       <c r="L33">
-        <v>6.2145090688651202E-3</v>
+        <v>4.6274588013036901E-4</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="4"/>
+      <c r="A34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="7">
+        <v>65</v>
+      </c>
+      <c r="E34" s="6">
         <v>0.46704145482987802</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>6.2835631835292796E-2</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>0.63989825581395299</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>70</v>
+      <c r="H34" s="9">
+        <v>0.50216766405163205</v>
       </c>
       <c r="I34">
         <v>2.1844283763891798E-3</v>
@@ -1846,25 +1484,25 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>0.44558502906976699</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>0.43436335744027998</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>0.36010174418604601</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>115</v>
+      <c r="H35" s="9">
+        <v>0.50587709050371699</v>
       </c>
       <c r="I35">
         <v>8.8498251688469993E-3</v>
@@ -1880,21 +1518,21 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="7">
+        <v>72</v>
+      </c>
+      <c r="E36" s="6">
         <v>0.55023619186046502</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>0.54167294649585496</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>0.65297965116279</v>
       </c>
       <c r="H36">
@@ -1914,21 +1552,21 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="7">
+        <v>73</v>
+      </c>
+      <c r="E37" s="6">
         <v>0.66072545952287798</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>3.9523073526164701E-2</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>0.22765261627906899</v>
       </c>
       <c r="H37">
@@ -1948,93 +1586,93 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="7">
+        <v>74</v>
+      </c>
+      <c r="E38" s="6">
         <v>0.43813590116279</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>0.40064196089874499</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>0.24945494186046499</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>120</v>
+      <c r="H38" s="9">
+        <v>0.50760960321761395</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1.3592272936267099E-2</v>
       </c>
       <c r="J38">
         <v>1.29412226298151E-2</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>122</v>
+      <c r="K38" s="9">
+        <v>1.4464473413412299E-2</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1.36605157096361E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="7">
+        <v>75</v>
+      </c>
+      <c r="E39" s="6">
         <v>0.59987289792725795</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>5.57826883041962E-2</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>0.40406976744186002</v>
       </c>
       <c r="H39">
         <v>0.51994449793852004</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>124</v>
+      <c r="I39" s="7">
+        <v>4.4064407328042501E-5</v>
       </c>
       <c r="J39">
         <v>1.15646210021826E-4</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>126</v>
+      <c r="K39" s="7">
+        <v>3.6249599479034303E-5</v>
+      </c>
+      <c r="L39" s="7">
+        <v>5.5197425239512399E-5</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="7">
+        <v>76</v>
+      </c>
+      <c r="E40" s="6">
         <v>0.46302688953488302</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>0.45671133801318797</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>0.39007994186046502</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>128</v>
+      <c r="H40" s="9">
+        <v>0.50268884454607099</v>
       </c>
       <c r="I40">
         <v>3.9997706728861302E-3</v>
@@ -2050,25 +1688,25 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="7">
+        <v>77</v>
+      </c>
+      <c r="E41" s="6">
         <v>0.44746773562768799</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>6.1861160261806103E-2</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>0.65425145348837199</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>130</v>
+      <c r="H41" s="9">
+        <v>0.505514442974069</v>
       </c>
       <c r="I41">
         <v>1.90892465026178E-3</v>
@@ -2084,21 +1722,21 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="7">
+        <v>72</v>
+      </c>
+      <c r="E42" s="6">
         <v>0.55023619186046502</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>0.54167294649585496</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>0.65297965116279</v>
       </c>
       <c r="H42">
@@ -2136,8 +1774,8 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2146,9 +1784,9 @@
     <col min="2" max="2" width="10.83203125" style="3"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -2164,13 +1802,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2190,10 +1828,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
@@ -2202,288 +1840,288 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>0.94370370370370305</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.94615384615384601</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0.96546310832025095</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.76296296296296295</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>0.78809869375907105</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.85243328100470905</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.93530864197530805</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.94405594405594395</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0.95368916797488201</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>0.93086419753086402</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.93019726858877005</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.962323390894819</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>0.91358024691357997</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>0.94493927125506005</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.91601255886970101</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0.73530864197530799</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.790551181102362</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.788069073783359</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>0.72691358024691299</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.79917012448132696</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.75588697017268403</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.89777777777777701</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.91291061879297097</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.9277950310559</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.80296296296296299</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>0.78511866581141698</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.95031055900621098</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>0.90271604938271599</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.92123552123552099</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.92624223602484401</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>0.89629629629629604</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>0.89228529839883497</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.95186335403726696</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>0.87012345679012304</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.91230893000804503</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.88043478260869501</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.72</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.72489082969432295</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.90217391304347805</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>0.82864197530864103</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>0.81898305084745704</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0.93788819875776397</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.45318518518518502</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.57693405652298002</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.47777777777777702</v>
-      </c>
-      <c r="H16" s="8">
+        <v>47</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.54681481481481398</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.68032029565753005</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.52222222222222203</v>
+      </c>
+      <c r="H16" s="9">
         <v>0.50430981818980003</v>
       </c>
       <c r="I16">
@@ -2500,58 +2138,58 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="6">
+        <v>0.66325925925925899</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.85465748459586799</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.55744680851063799</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.55324098494701501</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.123405875341857</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.124969552390483</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.122070517515578</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.12350302475057801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="7">
-        <v>0.66325925925925899</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.85465748459586799</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.55744680851063799</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.55324098494701501</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.123405875341857</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.124969552390483</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0.122070517515578</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.12350302475057801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>0.57718518518518502</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0.61524288107202596</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.86832151300236404</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="9">
         <v>0.51184278603688804</v>
       </c>
       <c r="I18">
@@ -2568,92 +2206,92 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.557037037037037</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>0.62783505154639097</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0.719858156028368</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="9">
         <v>0.50643332619921699</v>
       </c>
       <c r="I19">
         <v>-1.06231608183397E-4</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <v>1.12643629469495E-5</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <v>1.2522029044853401E-5</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="7">
         <v>1.18599474894789E-5</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.33674074074074001</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.46905537459283297</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.44255319148936101</v>
-      </c>
-      <c r="H20" s="8">
+        <v>38</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.66325925925925899</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.85465748459586799</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.55744680851063799</v>
+      </c>
+      <c r="H20" s="9">
         <v>0.55324098494701501</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="9">
         <v>0.123405875341857</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="9">
         <v>0.124969552390483</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>0.122070517515578</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="9">
         <v>0.12350302475057801</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.34222222222222198</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.46421267893660501</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.32198581560283601</v>
+        <v>87</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.65777777777777702</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.75157232704402499</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.67801418439716299</v>
       </c>
       <c r="H21">
         <v>0.54972094631303403</v>
@@ -2672,58 +2310,58 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.30960676953708299</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.14704491725768301</v>
-      </c>
-      <c r="H22" s="8">
+        <v>88</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.76102088167053294</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.85295508274231602</v>
+      </c>
+      <c r="H22" s="9">
         <v>0.61514298414579904</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="9">
         <v>0.14216035659007201</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="9">
         <v>0.13667698018986199</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="9">
         <v>0.148319627017828</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="9">
         <v>0.14226049160585499</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="7">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6">
         <v>0.60459259259259202</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>0.63473157258760504</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>0.86926713947990497</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="9">
         <v>0.52180837764716803</v>
       </c>
       <c r="I23">
@@ -2740,27 +2378,27 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="7">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6">
         <v>0.57125925925925902</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>0.62297496318114798</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.8</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="9">
         <v>0.51008318379128803</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>8.0491552602806503E-5</v>
       </c>
       <c r="J24">
@@ -2774,24 +2412,24 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="7">
+        <v>46</v>
+      </c>
+      <c r="E25" s="6">
         <v>0.56592592592592506</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>0.61818181818181805</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>0.80378250591016498</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="9">
         <v>0.50861965833072598</v>
       </c>
       <c r="I25">
@@ -2808,26 +2446,26 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="4"/>
+      <c r="A26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="7">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6">
         <v>0.54681481481481398</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.68032029565753005</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>0.52222222222222203</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="2">
         <v>0.50430981818980003</v>
       </c>
       <c r="I26">
@@ -2844,98 +2482,98 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="6">
+        <v>0.66325925925925899</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.85465748459586799</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.55744680851063799</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.55324098494701501</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.123405875341857</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.124969552390483</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.122070517515578</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.12350302475057801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="7">
-        <v>0.66325925925925899</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.85465748459586799</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.55744680851063799</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0.55324098494701501</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0.123405875341857</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0.124969552390483</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0.122070517515578</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0.12350302475057801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="7">
+        <v>48</v>
+      </c>
+      <c r="E28" s="6">
         <v>0.63170370370370299</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>0.64936622130866695</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>0.89621749408983398</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="2">
         <v>0.53462278636615501</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="2">
         <v>1.2807533442977101E-2</v>
       </c>
       <c r="J28">
         <v>1.0352555300275099E-2</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="2">
         <v>1.7273215897873399E-2</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="2">
         <v>1.29460221409718E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="7">
+        <v>49</v>
+      </c>
+      <c r="E29" s="6">
         <v>0.58074074074074</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>0.62943786982248495</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>0.80472813238770602</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="2">
         <v>0.51296598124276205</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>-1.4079285657952599E-5</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="7">
         <v>9.9809252094122805E-5</v>
       </c>
       <c r="K29">
@@ -2946,24 +2584,24 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="7">
+        <v>47</v>
+      </c>
+      <c r="E30" s="6">
         <v>0.54681481481481398</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>0.68032029565753005</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>0.52222222222222203</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="2">
         <v>0.50430981818980003</v>
       </c>
       <c r="I30">
@@ -2981,13 +2619,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B16:B30"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B16:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp/performance.xlsx
+++ b/temp/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boweigao/Projects/Preprocess/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFBF587-E09B-5644-84F1-E4840349BB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBA5FBA-08B1-EF4E-BAB4-7AD393BB8E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{0B55AC14-72A7-034A-9E86-D66614113898}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>transformed</t>
   </si>
@@ -360,6 +360,38 @@
   <si>
     <t>[[1387 1133]
  [ 622 3608]]</t>
+  </si>
+  <si>
+    <t>[[2505 2999]
+ [1982 3522]]</t>
+  </si>
+  <si>
+    <t>[[2314 3190]
+ [1872 3632]]</t>
+  </si>
+  <si>
+    <t>[[76221 20555]
+ [ 4639   865]]</t>
+  </si>
+  <si>
+    <t>[[3809 1695]
+ [4317 1187]]</t>
+  </si>
+  <si>
+    <t>[[54700 42076]
+ [ 3025  2479]]</t>
+  </si>
+  <si>
+    <t>[[2569 2935]
+ [2987 2517]]</t>
+  </si>
+  <si>
+    <t>[[37827 58949]
+ [ 1750  3754]]</t>
+  </si>
+  <si>
+    <t>[[2207 3297]
+ [1773 3731]]</t>
   </si>
 </sst>
 </file>
@@ -369,10 +401,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -415,6 +454,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,8 +777,8 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,88 +1101,315 @@
         <v>0.63059250302297398</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.46704145482987802</v>
+      </c>
+      <c r="F16" s="13">
+        <v>6.2835630000000003E-2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.63989825581395299</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.50216766405163205</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.1844299999999998E-3</v>
+      </c>
+      <c r="J16" s="10">
+        <v>4.7035000000000002E-3</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1.4317799999999999E-3</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2.1952899999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.54751090116279</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.54010121147063295</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.63989825581395299</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.50446955597495002</v>
+      </c>
+      <c r="I17" s="10">
+        <v>6.77423E-3</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6.7554299999999998E-3</v>
+      </c>
+      <c r="K17" s="10">
+        <v>6.9270099999999999E-3</v>
+      </c>
+      <c r="L17" s="10">
+        <v>6.8401499999999997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.54015261627906896</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.53239519202579799</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.65988372093023195</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.50317933249665603</v>
+      </c>
+      <c r="I18" s="10">
+        <v>4.9807300000000001E-3</v>
+      </c>
+      <c r="J18" s="10">
+        <v>4.9419199999999998E-3</v>
+      </c>
+      <c r="K18" s="10">
+        <v>5.1573299999999999E-3</v>
+      </c>
+      <c r="L18" s="10">
+        <v>5.04733E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.75367618302698403</v>
+      </c>
+      <c r="F19" s="13">
+        <v>4.038282E-2</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.15715843023255799</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.62869958000000004</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1.3717600000000001E-3</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2.38857E-3</v>
+      </c>
+      <c r="K19" s="10">
+        <v>9.7550999999999996E-4</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1.3852700000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.45385174418604601</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.41186675919500298</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.215661337209302</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.50421428000000001</v>
+      </c>
+      <c r="I20" s="10">
+        <v>8.6538399999999994E-3</v>
+      </c>
+      <c r="J20" s="10">
+        <v>7.9809200000000007E-3</v>
+      </c>
+      <c r="K20" s="10">
+        <v>9.62177E-3</v>
+      </c>
+      <c r="L20" s="10">
+        <v>8.7248699999999992E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.55904380132968301</v>
+      </c>
+      <c r="F21" s="13">
+        <v>5.5639097744360898E-2</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.45039970930232498</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.50696752053168204</v>
+      </c>
+      <c r="I21" s="12">
+        <v>4.5451298506478598E-5</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1.2031000000000001E-4</v>
+      </c>
+      <c r="K21" s="12">
+        <v>3.6819448906971397E-5</v>
+      </c>
+      <c r="L21" s="12">
+        <v>5.6382932138453599E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.46202761627906902</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.46166544387380698</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.45730377906976699</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.50283864020992897</v>
+      </c>
+      <c r="I22" s="10">
+        <v>4.0996899999999996E-3</v>
+      </c>
+      <c r="J22" s="10">
+        <v>4.1648299999999996E-3</v>
+      </c>
+      <c r="K22" s="10">
+        <v>4.1650999999999997E-3</v>
+      </c>
+      <c r="L22" s="10">
+        <v>4.1649699999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.40654086820492702</v>
+      </c>
+      <c r="F23" s="13">
+        <v>5.9869539999999999E-2</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.68204941860465096</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.51746449999999999</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1.3227E-3</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2.7904499999999999E-3</v>
+      </c>
+      <c r="K23" s="10">
+        <v>8.7637000000000001E-4</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1.33384E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="2"/>
+      <c r="C24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.53942587209302295</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0.53087649402390402</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.67787063953488302</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.50306365558069799</v>
+      </c>
+      <c r="I24" s="10">
+        <v>4.9378800000000004E-3</v>
+      </c>
+      <c r="J24" s="10">
+        <v>4.8647500000000002E-3</v>
+      </c>
+      <c r="K24" s="10">
+        <v>5.15352E-3</v>
+      </c>
+      <c r="L24" s="10">
+        <v>5.00498E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
